--- a/doc/food_list.xlsx
+++ b/doc/food_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13360"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
@@ -50,45 +50,21 @@
     <t>老妈子带鱼</t>
   </si>
   <si>
-    <t>榨菜肉丝</t>
-  </si>
-  <si>
-    <t>莲藕炖排骨</t>
-  </si>
-  <si>
-    <t>米粉蒸肉</t>
-  </si>
-  <si>
     <t>农家小炒肉</t>
   </si>
   <si>
-    <t>蒜苗腊肉</t>
-  </si>
-  <si>
-    <t>韭菜炒猪血</t>
-  </si>
-  <si>
     <t>湖南臭豆腐</t>
   </si>
   <si>
-    <t>肉末丝瓜</t>
-  </si>
-  <si>
-    <t>腊肉炒萝卜</t>
-  </si>
-  <si>
     <t>萝卜干炒腊肉</t>
   </si>
   <si>
-    <t>爆炒鸭血</t>
+    <t>永州血鸭</t>
   </si>
   <si>
     <t>冰糖湘莲</t>
   </si>
   <si>
-    <t>韭菜花鱿鱼丝</t>
-  </si>
-  <si>
     <t>腊味合蒸</t>
   </si>
   <si>
@@ -98,18 +74,9 @@
     <t>双椒蒸鱼头</t>
   </si>
   <si>
-    <t>香煎糍粑</t>
-  </si>
-  <si>
     <t>攸县香干</t>
   </si>
   <si>
-    <t>紫苏煎黄瓜</t>
-  </si>
-  <si>
-    <t>板栗炖土鸡</t>
-  </si>
-  <si>
     <t>冬菇藕夹</t>
   </si>
   <si>
@@ -132,9 +99,6 @@
   </si>
   <si>
     <t>剁椒鱼头</t>
-  </si>
-  <si>
-    <t>永州血鸭</t>
   </si>
   <si>
     <t>麻仁香酥鸭</t>
@@ -768,12 +732,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1097,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1113,7 +1074,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1129,7 +1090,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1137,7 +1098,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1145,7 +1106,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1153,7 +1114,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1161,7 +1122,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1169,7 +1130,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1177,7 +1138,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1185,7 +1146,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1193,7 +1154,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1201,7 +1162,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1209,7 +1170,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1217,7 +1178,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1225,7 +1186,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1233,7 +1194,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1241,7 +1202,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1249,7 +1210,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1257,7 +1218,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1265,7 +1226,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1273,7 +1234,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1281,7 +1242,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1289,7 +1250,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1297,7 +1258,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1305,7 +1266,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1313,7 +1274,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1321,7 +1282,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1329,7 +1290,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1337,104 +1298,8 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
